--- a/015 - Financial Modeling - CFA lv1 Practical Skills Module/Blu Containers Worksheet.xlsx
+++ b/015 - Financial Modeling - CFA lv1 Practical Skills Module/Blu Containers Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aabc13fd71a4f481/Desktop/Financial Modeling/1.1 Getting Started - Introduction Downloadable Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marqu\Documents\Code\015 - Financial Modeling - CFA lv1 Practical Skills Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="997" documentId="13_ncr:1_{66FF32C1-142A-4B56-845C-14E988180EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E46ABE8-F759-4443-8794-787123BBE610}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3537A1A-3E8A-4E78-93FF-0AA25701651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="211">
   <si>
     <t>Pricing Case</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t>Feb 10, 2024</t>
+  </si>
+  <si>
+    <t>[(github.com) marquettilucas/Portfolio/015]</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2117,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="647">
+  <cellXfs count="641">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3250,29 +3253,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="183" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Across" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3447,10 +3438,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3803,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C6EF5-C69B-484A-905D-8E9AF4DE6530}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="88" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3845,7 +3832,9 @@
       <c r="G7" s="508"/>
     </row>
     <row r="8" spans="1:10" s="504" customFormat="1" ht="15">
-      <c r="B8" s="635"/>
+      <c r="B8" s="635" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="504" customFormat="1" ht="15"/>
     <row r="10" spans="1:10" s="504" customFormat="1" ht="30">
@@ -3910,14 +3899,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://www.linkedin.com/in/lucasmarquetti/" xr:uid="{83F21403-ABB2-4CF5-8DDB-B0D4BB9DA746}"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://github.com/marquettilucas/Portfolio/tree/main/015 - Financial Modeling - CFA lv1 Practical Skills Module" xr:uid="{DD45E568-4127-451D-9A64-9E0B97DEE56D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup scale="95" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="95" orientation="landscape" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9&amp;A&amp;C&amp;9Page &amp;P of &amp;N&amp;R&amp;9Feb 10, 2024    15:27</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3926,7 +3916,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AF66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -6066,7 +6056,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{4924D4C9-984C-4594-998A-20C6D0FE1C6A}">
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{6432E141-2854-439F-993C-6CC4FD658F77}">
           <x14:colorSeries rgb="FF009966"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6077,8 +6067,104 @@
           <x14:colorLow rgb="FF5B77CC"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Summary!H62:O62</xm:f>
-              <xm:sqref>F62</xm:sqref>
+              <xm:f>Summary!H16:O16</xm:f>
+              <xm:sqref>F16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{B52FA5C1-8ABD-4858-952B-1FE363D8F282}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H12:O12</xm:f>
+              <xm:sqref>F12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{7C576C4A-CC28-42C3-BB62-0E794D368835}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H21:O21</xm:f>
+              <xm:sqref>F21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{922AC61D-B8DA-48C6-B9FA-F462165B173B}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H33:O33</xm:f>
+              <xm:sqref>F33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{64F1AC68-22C1-494C-8DB9-8B7DE5149FDB}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H37:O37</xm:f>
+              <xm:sqref>F37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{AD712293-37A1-4BBB-9B0B-D14D90E896D3}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H42:O42</xm:f>
+              <xm:sqref>F42</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{210DCF42-6BB4-4817-B593-1DB3DE3EEC14}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H53:O53</xm:f>
+              <xm:sqref>F53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6098,7 +6184,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{210DCF42-6BB4-4817-B593-1DB3DE3EEC14}">
+        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{4924D4C9-984C-4594-998A-20C6D0FE1C6A}">
           <x14:colorSeries rgb="FF009966"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6109,104 +6195,8 @@
           <x14:colorLow rgb="FF5B77CC"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Summary!H53:O53</xm:f>
-              <xm:sqref>F53</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{AD712293-37A1-4BBB-9B0B-D14D90E896D3}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H42:O42</xm:f>
-              <xm:sqref>F42</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{64F1AC68-22C1-494C-8DB9-8B7DE5149FDB}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H37:O37</xm:f>
-              <xm:sqref>F37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{922AC61D-B8DA-48C6-B9FA-F462165B173B}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H33:O33</xm:f>
-              <xm:sqref>F33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{7C576C4A-CC28-42C3-BB62-0E794D368835}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H21:O21</xm:f>
-              <xm:sqref>F21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{B52FA5C1-8ABD-4858-952B-1FE363D8F282}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H12:O12</xm:f>
-              <xm:sqref>F12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{6432E141-2854-439F-993C-6CC4FD658F77}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H16:O16</xm:f>
-              <xm:sqref>F16</xm:sqref>
+              <xm:f>Summary!H62:O62</xm:f>
+              <xm:sqref>F62</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6221,7 +6211,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -7381,7 +7371,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -7669,36 +7659,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1">
-      <c r="G22" s="636"/>
-      <c r="H22" s="636"/>
-      <c r="I22" s="636"/>
-      <c r="J22" s="636"/>
-      <c r="K22" s="636"/>
-    </row>
+    <row r="22" spans="1:13" ht="12.75" customHeight="1"/>
     <row r="23" spans="1:13" s="78" customFormat="1" ht="16.2" customHeight="1">
       <c r="B23" s="58" t="s">
         <v>170</v>
       </c>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
-      <c r="G23" s="637">
+      <c r="G23" s="636">
         <f t="shared" ref="G23:K23" si="1">INDEX(G25:G27,MATCH($D$6,$C$14:$C$16,0))</f>
         <v>800</v>
       </c>
-      <c r="H23" s="638">
+      <c r="H23" s="637">
         <f t="shared" si="1"/>
         <v>725</v>
       </c>
-      <c r="I23" s="638">
+      <c r="I23" s="637">
         <f t="shared" si="1"/>
         <v>825</v>
       </c>
-      <c r="J23" s="638">
+      <c r="J23" s="637">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="K23" s="639">
+      <c r="K23" s="638">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
@@ -7707,11 +7691,11 @@
       <c r="B24" s="80"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
-      <c r="G24" s="640"/>
-      <c r="H24" s="640"/>
-      <c r="I24" s="640"/>
-      <c r="J24" s="640"/>
-      <c r="K24" s="640"/>
+      <c r="G24" s="639"/>
+      <c r="H24" s="639"/>
+      <c r="I24" s="639"/>
+      <c r="J24" s="639"/>
+      <c r="K24" s="639"/>
     </row>
     <row r="25" spans="1:13">
       <c r="C25" s="72" t="str">
@@ -7732,7 +7716,7 @@
       <c r="J25" s="598">
         <v>800</v>
       </c>
-      <c r="K25" s="641">
+      <c r="K25" s="640">
         <v>750</v>
       </c>
       <c r="L25" s="81"/>
@@ -7810,22 +7794,22 @@
       <c r="C28" s="83"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
-      <c r="G28" s="642"/>
-      <c r="H28" s="642"/>
-      <c r="I28" s="642"/>
-      <c r="J28" s="642"/>
-      <c r="K28" s="643"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="81"/>
     </row>
     <row r="29" spans="1:13">
       <c r="C29" s="83"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
-      <c r="G29" s="642"/>
-      <c r="H29" s="642"/>
-      <c r="I29" s="642"/>
-      <c r="J29" s="642"/>
-      <c r="K29" s="643"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="81"/>
     </row>
     <row r="30" spans="1:13" ht="16.2" customHeight="1">
@@ -7834,23 +7818,23 @@
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
-      <c r="G30" s="644">
+      <c r="G30" s="605">
         <f>INDEX(G32:G34,MATCH($D$6,$C$14:$C$16,0))</f>
         <v>0.05</v>
       </c>
-      <c r="H30" s="645">
+      <c r="H30" s="606">
         <f t="shared" ref="H30:K30" si="3">INDEX(H32:H34,MATCH($D$6,$C$14:$C$16,0))</f>
         <v>0.04</v>
       </c>
-      <c r="I30" s="645">
+      <c r="I30" s="606">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="J30" s="645">
+      <c r="J30" s="606">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="K30" s="646">
+      <c r="K30" s="607">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
@@ -8005,7 +7989,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:II347"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -23491,17 +23475,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90f44690-06d1-49fb-852d-53eb500a6f07">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c7e0179-495a-4ef3-8969-463b3802bcab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023898D8306A1034782492F3567A273F2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c5b699968f7936cc9e2b89b7e5f9cbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90f44690-06d1-49fb-852d-53eb500a6f07" xmlns:ns3="7c7e0179-495a-4ef3-8969-463b3802bcab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dadd706c7ce454de55746a2a3b085249" ns2:_="" ns3:_="">
     <xsd:import namespace="90f44690-06d1-49fb-852d-53eb500a6f07"/>
@@ -23718,6 +23691,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90f44690-06d1-49fb-852d-53eb500a6f07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c7e0179-495a-4ef3-8969-463b3802bcab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39E450A-0AD5-4057-8FCE-28839633CB2C}">
   <ds:schemaRefs>
@@ -23727,17 +23711,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4085162E-4F6A-4F9A-AA32-41B2CBEE217C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90f44690-06d1-49fb-852d-53eb500a6f07"/>
-    <ds:schemaRef ds:uri="7c7e0179-495a-4ef3-8969-463b3802bcab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B2F2C-E8EE-4BB5-A717-F682100019CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23754,4 +23727,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4085162E-4F6A-4F9A-AA32-41B2CBEE217C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90f44690-06d1-49fb-852d-53eb500a6f07"/>
+    <ds:schemaRef ds:uri="7c7e0179-495a-4ef3-8969-463b3802bcab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>